--- a/biology/Médecine/Thomas_Stephen_Cullen/Thomas_Stephen_Cullen.xlsx
+++ b/biology/Médecine/Thomas_Stephen_Cullen/Thomas_Stephen_Cullen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Stephen Cullen (20 novembre 1868 - 4 mars 1953) est un gynécologue et professeur canadien ayant travaillé à l'hôpital Johns-Hopkins. Il a laissé son nom au signe de Cullen.
 Il est le pionnier de la pathologie gynécologique aux Etats-Unis.
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Bridgewater en Ontario au Canada, Thomas Stephen Cullen reçoit son diplôme de médecine en 1890 de l'Université de Toronto. L'année suivante, il rejoint l'hôpital Johns-Hopkins pour continuer sa formation sous la supervision de William Welch en pathologie, avant de devenir l'interne de Howard Kelly en gynécologie[1].
-En 1893, Cullen part six mois en Allemagne pour étudier dans le laboratoire de pathologie de Johannes Orth à l'Université de Göttingen. A son retour et jusqu'en 1896, il est chargé de la pathologie gynécologique à Johns Hopkins et y établit son laboratoire de pathologie. L'année suivante, il est nommé associé en gynécologie puis professeur de gynécologie clinique en 1919 et enfin professeur de gynécologie en 1932[1].
-Cullen est le premier en Amérique à examiner les tissus enlevés au bloc opératoire, utilisant un microscope pour établir des diagnostics[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Bridgewater en Ontario au Canada, Thomas Stephen Cullen reçoit son diplôme de médecine en 1890 de l'Université de Toronto. L'année suivante, il rejoint l'hôpital Johns-Hopkins pour continuer sa formation sous la supervision de William Welch en pathologie, avant de devenir l'interne de Howard Kelly en gynécologie.
+En 1893, Cullen part six mois en Allemagne pour étudier dans le laboratoire de pathologie de Johannes Orth à l'Université de Göttingen. A son retour et jusqu'en 1896, il est chargé de la pathologie gynécologique à Johns Hopkins et y établit son laboratoire de pathologie. L'année suivante, il est nommé associé en gynécologie puis professeur de gynécologie clinique en 1919 et enfin professeur de gynécologie en 1932.
+Cullen est le premier en Amérique à examiner les tissus enlevés au bloc opératoire, utilisant un microscope pour établir des diagnostics.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les travaux de Cullen portaient sur le cancer de l'utérus, les adénomyomes utérins, l'hyperplasie endométriale, les pathologies de l'ombilic, les fibromes utérins et les grossesses extra-utérines[1].
-Il a décrit en 1918 le signe de Cullen : coloration bleutée de l'ombilic associée à un hémorragie intrapéritonéale, signant une pancréatite aiguë ou une grossesse extra-utérine[1],[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les travaux de Cullen portaient sur le cancer de l'utérus, les adénomyomes utérins, l'hyperplasie endométriale, les pathologies de l'ombilic, les fibromes utérins et les grossesses extra-utérines.
+Il a décrit en 1918 le signe de Cullen : coloration bleutée de l'ombilic associée à un hémorragie intrapéritonéale, signant une pancréatite aiguë ou une grossesse extra-utérine.
 </t>
         </is>
       </c>
@@ -577,15 +593,17 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pyometra in a cat, American veterinary review (1894)[4]
-Silkworm gut as a subcutaneous suture in closure of abdominal incisions. American journal of obstetrics (1897)[5]
-Cancer of the uterus: its pathology, symptomatology, diagnosis, and treatment : also the pathology of diseases of the endometrium (1900)[6]
-Adenomyoma of the Uterus (1908)[7]
-Embryology Anatomy and Diseases of the Umbilicus Together With Diseases of the Urachus (1916)[8]
-A new sign in ruptured extrauterine pregnancy, American journal of obstetrics and diseases of women and children (1918)[9]
-Bluish discolouration of the umbilicus as a diagnostic sign when ruptured extrauterine pregnancy exists, In: Contributions to Medical and Biological Research (1919)[10]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pyometra in a cat, American veterinary review (1894)
+Silkworm gut as a subcutaneous suture in closure of abdominal incisions. American journal of obstetrics (1897)
+Cancer of the uterus: its pathology, symptomatology, diagnosis, and treatment : also the pathology of diseases of the endometrium (1900)
+Adenomyoma of the Uterus (1908)
+Embryology Anatomy and Diseases of the Umbilicus Together With Diseases of the Urachus (1916)
+A new sign in ruptured extrauterine pregnancy, American journal of obstetrics and diseases of women and children (1918)
+Bluish discolouration of the umbilicus as a diagnostic sign when ruptured extrauterine pregnancy exists, In: Contributions to Medical and Biological Research (1919)</t>
         </is>
       </c>
     </row>
